--- a/backdata/DRI.xlsx
+++ b/backdata/DRI.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\webApp\ifna_pwa02\backdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA9984-BA38-4CEE-922E-572ACA702D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40319C27-E25B-4A4F-BD92-07D8EF7FAD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20352" windowHeight="12264" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20352" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRI_aggr" sheetId="5" r:id="rId1"/>
-    <sheet name="DRI" sheetId="1" r:id="rId2"/>
-    <sheet name="energy" sheetId="6" r:id="rId3"/>
-    <sheet name="protein" sheetId="2" r:id="rId4"/>
-    <sheet name="vita" sheetId="3" r:id="rId5"/>
-    <sheet name="fe" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="DRI" sheetId="1" r:id="rId3"/>
+    <sheet name="energy" sheetId="6" r:id="rId4"/>
+    <sheet name="protein" sheetId="2" r:id="rId5"/>
+    <sheet name="vita" sheetId="3" r:id="rId6"/>
+    <sheet name="fe" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>age_id</t>
   </si>
@@ -61,16 +62,7 @@
     <t>http://www.fao.org/3/y5686e/y5686e0a.htm</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>energy</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>vita</t>
   </si>
   <si>
     <t>fe</t>
@@ -255,84 +247,98 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>child 0-23mon</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>child 24-59mon</t>
-    <phoneticPr fontId="18"/>
+    <t>adolescent girl</t>
+  </si>
+  <si>
+    <t>adolescent boy</t>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>vitA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>fe</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Energy+</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>KJ/day</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>adult pregnant</t>
+  </si>
+  <si>
+    <t>increment protein</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pregnancy increment</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lactating increment</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>10-17</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>child 0-23 month</t>
+  </si>
+  <si>
+    <t>child 24-59 month</t>
   </si>
   <si>
     <t>child 6-9 yr</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>adolescent girl</t>
-  </si>
-  <si>
-    <t>adolescent girl</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>adolescent boy</t>
-  </si>
-  <si>
-    <t>adolescent boy</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>energy</t>
-    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>adolescent pregnant</t>
+  </si>
+  <si>
+    <t>adolescent lactating</t>
+  </si>
+  <si>
+    <t>adult lactating</t>
+  </si>
+  <si>
+    <t>adult</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DRI average</t>
+  </si>
+  <si>
+    <t>prot</t>
   </si>
   <si>
     <t>vitA</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>fe</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Energy+</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>KJ/day</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>adult pregnant</t>
-  </si>
-  <si>
-    <t>adult pregnant</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>increment protein</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>adoles. Lact</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>adult lact</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>adoles. pregnant</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>pregnancy increment</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>lactating increment</t>
+  </si>
+  <si>
+    <t>adolenscent</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>child 0-23 month</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>child 24-59 month</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -340,27 +346,17 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>adolescent lactating</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>adult lactating</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>child 0-23 month</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>child 24-59 month</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>pregnant women</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>10-17</t>
+    <t>adolescent lact</t>
+  </si>
+  <si>
+    <t>adolescent lact</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>adolescent all</t>
+  </si>
+  <si>
+    <t>adolescent all</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1021,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,6 +1073,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2261,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -2272,24 +2274,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1088</v>
@@ -2306,7 +2308,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>1204</v>
@@ -2323,7 +2325,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>1916</v>
@@ -2340,7 +2342,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>2503</v>
@@ -2357,7 +2359,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>3322</v>
@@ -2374,7 +2376,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2602</v>
@@ -2386,92 +2388,92 @@
         <v>550</v>
       </c>
       <c r="E7">
-        <v>21.6</v>
+        <v>21.549999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8">
-        <v>3049</v>
+        <v>2999</v>
       </c>
       <c r="C8">
-        <v>51.8</v>
+        <v>52.5</v>
       </c>
       <c r="D8">
         <v>800</v>
       </c>
       <c r="E8">
-        <v>26.3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B9">
-        <v>2999</v>
+        <v>3098</v>
       </c>
       <c r="C9">
-        <v>52.5</v>
+        <v>51.1</v>
       </c>
       <c r="D9">
         <v>800</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>21.549999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>3098</v>
+        <v>3253</v>
       </c>
       <c r="C10">
-        <v>51.1</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="D10">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="E10">
-        <v>21.6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>3253</v>
+        <v>3066</v>
       </c>
       <c r="C11">
-        <v>78.400000000000006</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>850</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>3066</v>
+        <v>2913</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>52.7</v>
       </c>
       <c r="D12">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="E12">
-        <v>44.4</v>
+        <v>24.9</v>
       </c>
     </row>
   </sheetData>
@@ -2482,18 +2484,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7B2A57-E177-46DE-96AD-A22CB1490B98}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.94921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.47265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -2505,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="B1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.85">
@@ -2513,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -2534,10 +2602,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.85">
@@ -2545,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5">
         <v>10.199999999999999</v>
@@ -2579,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5">
         <v>11.6</v>
@@ -2613,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5">
         <v>11.8</v>
@@ -2647,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5">
         <v>11.9</v>
@@ -2681,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5">
         <v>13.1</v>
@@ -2715,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>17.100000000000001</v>
@@ -2749,7 +2817,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5">
         <v>25.9</v>
@@ -2783,7 +2851,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5">
         <v>40.5</v>
@@ -2818,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5">
         <v>57.9</v>
@@ -2852,7 +2920,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5">
         <f>protein!P7</f>
@@ -2909,12 +2977,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="B15" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="B16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1</v>
@@ -2935,15 +3003,15 @@
         <v>6</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.85">
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
         <f>C6</f>
@@ -2980,7 +3048,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.85">
       <c r="B18" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2">
         <f>C7</f>
@@ -3017,7 +3085,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.85">
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2">
         <f>C9</f>
@@ -3054,7 +3122,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.85">
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
         <f>C11</f>
@@ -3091,7 +3159,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.85">
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <f>C12</f>
@@ -3128,24 +3196,24 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.85">
       <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.85">
       <c r="C26" s="13" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D26" s="13">
         <f>AVERAGE(I17,J17)</f>
@@ -3166,7 +3234,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.85">
       <c r="C27" s="13" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D27" s="13">
         <f>AVERAGE(I18,J18)</f>
@@ -3187,7 +3255,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.85">
       <c r="C28" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D28" s="13">
         <f>AVERAGE(I19,J19)</f>
@@ -3208,7 +3276,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.85">
       <c r="C29" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D29" s="13">
         <f>J20</f>
@@ -3229,7 +3297,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.85">
       <c r="C30" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D30" s="13">
         <f>I20</f>
@@ -3250,7 +3318,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.85">
       <c r="C31" s="13" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D31" s="18">
         <f>AVERAGE(I21,J21)</f>
@@ -3271,7 +3339,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.85">
       <c r="C32" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D32" s="18">
         <f>D29+energy!T27</f>
@@ -3291,7 +3359,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.85">
       <c r="C33" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D33" s="18">
         <f>D31+energy!T27</f>
@@ -3311,7 +3379,7 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.85">
       <c r="C34" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D34" s="18">
         <f>D29+energy!T33</f>
@@ -3331,7 +3399,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.85">
       <c r="C35" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D35" s="18">
         <f>J21+energy!T33</f>
@@ -3347,6 +3415,27 @@
       <c r="G35" s="13">
         <f>H21+15</f>
         <v>44.4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.85">
+      <c r="C36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="18">
+        <f>AVERAGE(D29:D30)</f>
+        <v>2912.5</v>
+      </c>
+      <c r="E36" s="20">
+        <f t="shared" ref="E36:G36" si="6">AVERAGE(E29:E30)</f>
+        <v>52.65</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="6"/>
+        <v>24.9</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +3445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:U70"/>
   <sheetViews>
@@ -3368,21 +3457,21 @@
   <sheetData>
     <row r="2" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S3" s="2">
         <v>639</v>
@@ -3397,7 +3486,7 @@
     </row>
     <row r="4" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S4" s="2">
         <v>775</v>
@@ -3412,7 +3501,7 @@
     </row>
     <row r="5" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R5" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S5" s="2">
         <v>948</v>
@@ -3427,7 +3516,7 @@
     </row>
     <row r="6" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S6" s="2">
         <v>1129</v>
@@ -3442,7 +3531,7 @@
     </row>
     <row r="7" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S7" s="2">
         <v>1252</v>
@@ -3457,7 +3546,7 @@
     </row>
     <row r="8" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S8" s="2">
         <v>1360</v>
@@ -3472,7 +3561,7 @@
     </row>
     <row r="9" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S9" s="2">
         <v>1467</v>
@@ -3487,7 +3576,7 @@
     </row>
     <row r="10" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S10" s="2">
         <v>1573</v>
@@ -3502,7 +3591,7 @@
     </row>
     <row r="11" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S11" s="2">
         <v>1692</v>
@@ -3517,7 +3606,7 @@
     </row>
     <row r="12" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R12" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S12" s="2">
         <v>1830</v>
@@ -3532,7 +3621,7 @@
     </row>
     <row r="13" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S13" s="2">
         <v>1978</v>
@@ -3547,7 +3636,7 @@
     </row>
     <row r="14" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R14" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S14" s="2">
         <v>2150</v>
@@ -3562,7 +3651,7 @@
     </row>
     <row r="15" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S15" s="2">
         <v>2341</v>
@@ -3577,7 +3666,7 @@
     </row>
     <row r="16" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S16" s="2">
         <v>2548</v>
@@ -3592,7 +3681,7 @@
     </row>
     <row r="17" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S17" s="2">
         <v>2770</v>
@@ -3607,7 +3696,7 @@
     </row>
     <row r="18" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S18" s="2">
         <v>2990</v>
@@ -3622,7 +3711,7 @@
     </row>
     <row r="19" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S19" s="2">
         <v>3178</v>
@@ -3637,7 +3726,7 @@
     </row>
     <row r="20" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S20" s="2">
         <v>3322</v>
@@ -3652,7 +3741,7 @@
     </row>
     <row r="21" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R21" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S21" s="15">
         <f>(11.472*60+873.1)*1.85</f>
@@ -3674,24 +3763,24 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="18:21" x14ac:dyDescent="0.85">
-      <c r="R24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="23"/>
+      <c r="R24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S24" s="24"/>
+      <c r="T24" s="25"/>
     </row>
     <row r="25" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R25" s="13"/>
       <c r="S25" s="13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R26" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S26" s="13">
         <v>1</v>
@@ -3702,7 +3791,7 @@
     </row>
     <row r="27" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R27" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S27" s="13">
         <v>2075</v>
@@ -3713,24 +3802,24 @@
       </c>
     </row>
     <row r="30" spans="18:21" x14ac:dyDescent="0.85">
-      <c r="R30" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="23"/>
+      <c r="R30" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30" s="25"/>
     </row>
     <row r="31" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R31" s="13"/>
       <c r="S31" s="13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="18:21" x14ac:dyDescent="0.85">
       <c r="R32" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S32" s="13">
         <v>1</v>
@@ -3741,7 +3830,7 @@
     </row>
     <row r="33" spans="18:20" x14ac:dyDescent="0.85">
       <c r="R33" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S33" s="2">
         <v>3138</v>
@@ -3752,22 +3841,22 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="198.3" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A70" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
+      <c r="A70" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3781,7 +3870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:Q45"/>
   <sheetViews>
@@ -3793,21 +3882,21 @@
   <sheetData>
     <row r="4" spans="15:17" x14ac:dyDescent="0.85">
       <c r="P4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="15:17" x14ac:dyDescent="0.85">
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="15:17" x14ac:dyDescent="0.85">
       <c r="O6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P6" s="2">
         <v>60</v>
@@ -3818,7 +3907,7 @@
     </row>
     <row r="7" spans="15:17" x14ac:dyDescent="0.85">
       <c r="O7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P7" s="2">
         <v>50</v>
@@ -3829,7 +3918,7 @@
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.85">
       <c r="I31" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.85">
@@ -3838,21 +3927,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.85">
-      <c r="I33" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="I33" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
       <c r="L33" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.85">
-      <c r="I34" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="I34" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
       <c r="L34" s="2">
         <v>19</v>
       </c>
@@ -3876,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3892,7 +3981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/backdata/DRI.xlsx
+++ b/backdata/DRI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\webApp\ifna_pwa02\backdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunichinakada/Documents/webApp/ifna_pwa02/backdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40319C27-E25B-4A4F-BD92-07D8EF7FAD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593A7D6C-8112-7449-8286-C4D4982F4E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20352" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20360" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRI_aggr" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>age_id</t>
   </si>
@@ -250,9 +250,6 @@
     <t>adolescent girl</t>
   </si>
   <si>
-    <t>adolescent boy</t>
-  </si>
-  <si>
     <t>energy</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -327,36 +324,55 @@
     <t>vitA</t>
   </si>
   <si>
-    <t>adult lact</t>
-  </si>
-  <si>
     <t>adolenscent</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>child 0-23 month</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>child 24-59 month</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>adolescent pregnant</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>adolescent lact</t>
   </si>
   <si>
-    <t>adolescent lact</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>adolescent all</t>
   </si>
   <si>
-    <t>adolescent all</t>
+    <t>adolescent female</t>
+  </si>
+  <si>
+    <t>adolescent female</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>adolescent male</t>
+  </si>
+  <si>
+    <t>adolescent male</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lactating</t>
+  </si>
+  <si>
+    <t>lactating</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>adult male</t>
+  </si>
+  <si>
+    <t>adult male</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>adult female</t>
+  </si>
+  <si>
+    <t>adult female</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -367,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +551,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1017,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,12 +1097,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,6 +1120,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2261,37 +2289,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.90234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>1088</v>
@@ -2306,9 +2332,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>1204</v>
@@ -2323,9 +2349,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>1916</v>
@@ -2340,9 +2366,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>2503</v>
@@ -2357,9 +2383,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>3322</v>
@@ -2374,11 +2400,11 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="28">
         <v>2602</v>
       </c>
       <c r="C7">
@@ -2391,11 +2417,11 @@
         <v>21.549999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="B8" s="28">
         <v>2999</v>
       </c>
       <c r="C8">
@@ -2408,11 +2434,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9">
+        <v>84</v>
+      </c>
+      <c r="B9" s="28">
         <v>3098</v>
       </c>
       <c r="C9">
@@ -2425,11 +2451,11 @@
         <v>21.549999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10">
+        <v>78</v>
+      </c>
+      <c r="B10" s="28">
         <v>3253</v>
       </c>
       <c r="C10">
@@ -2442,11 +2468,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11">
+        <v>86</v>
+      </c>
+      <c r="B11" s="28">
         <v>3066</v>
       </c>
       <c r="C11">
@@ -2459,21 +2485,55 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="B12" s="28">
         <v>2913</v>
       </c>
       <c r="C12">
-        <v>52.7</v>
+        <v>52.65</v>
       </c>
       <c r="D12">
         <v>600</v>
       </c>
       <c r="E12">
         <v>24.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="28">
+        <v>2889</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="28">
+        <v>2316</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>
@@ -2491,56 +2551,56 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.85">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.85">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.85">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.85">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.85">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.85">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2551,32 +2611,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.94921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2608,7 +2668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:10">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2642,7 +2702,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2676,7 +2736,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2710,7 +2770,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -2744,7 +2804,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -2778,7 +2838,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -2812,7 +2872,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2846,7 +2906,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:10">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -2881,7 +2941,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:10">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -2915,7 +2975,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:10">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -2951,7 +3011,7 @@
         <v>2316.0150000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:10">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -2963,7 +3023,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:10">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -2975,12 +3035,12 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:10">
       <c r="B15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:10">
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +3069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="17" spans="2:10">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
@@ -3046,7 +3106,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="18" spans="2:10">
       <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
@@ -3083,7 +3143,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="19" spans="2:10">
       <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
@@ -3120,9 +3180,9 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="20" spans="2:10">
       <c r="B20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2">
         <f>C11</f>
@@ -3157,7 +3217,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="21" spans="2:10">
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
@@ -3194,26 +3254,26 @@
         <v>2316.0150000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="25" spans="2:10">
       <c r="C25" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.85">
+    </row>
+    <row r="26" spans="2:10">
       <c r="C26" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="13">
         <f>AVERAGE(I17,J17)</f>
@@ -3232,9 +3292,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="27" spans="2:10">
       <c r="C27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="13">
         <f>AVERAGE(I18,J18)</f>
@@ -3252,10 +3312,11 @@
         <f t="shared" si="5"/>
         <v>5.8</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="C28" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="13">
         <f>AVERAGE(I19,J19)</f>
@@ -3273,10 +3334,11 @@
         <f t="shared" si="5"/>
         <v>8.9</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="C29" s="13" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D29" s="13">
         <f>J20</f>
@@ -3295,9 +3357,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="30" spans="2:10">
       <c r="C30" s="13" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D30" s="13">
         <f>I20</f>
@@ -3316,7 +3378,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="31" spans="2:10">
       <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
@@ -3337,9 +3399,9 @@
         <v>21.549999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.85">
+    <row r="32" spans="2:10">
       <c r="C32" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="18">
         <f>D29+energy!T27</f>
@@ -3357,9 +3419,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.85">
+    <row r="33" spans="3:7">
       <c r="C33" s="6" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D33" s="18">
         <f>D31+energy!T27</f>
@@ -3377,9 +3439,9 @@
         <v>21.549999999999997</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.85">
+    <row r="34" spans="3:7">
       <c r="C34" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D34" s="18">
         <f>D29+energy!T33</f>
@@ -3397,9 +3459,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.85">
+    <row r="35" spans="3:7">
       <c r="C35" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D35" s="18">
         <f>J21+energy!T33</f>
@@ -3417,25 +3479,67 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.85">
+    <row r="36" spans="3:7">
       <c r="C36" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D36" s="18">
         <f>AVERAGE(D29:D30)</f>
         <v>2912.5</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <f t="shared" ref="E36:G36" si="6">AVERAGE(E29:E30)</f>
         <v>52.65</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="20">
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="20">
         <f t="shared" si="6"/>
         <v>24.9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="18">
+        <f>I21</f>
+        <v>2888.6270000000004</v>
+      </c>
+      <c r="E37" s="20">
+        <f>C21</f>
+        <v>50</v>
+      </c>
+      <c r="F37" s="20">
+        <f>D21</f>
+        <v>600</v>
+      </c>
+      <c r="G37" s="20">
+        <f>E21</f>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="18">
+        <f>J21</f>
+        <v>2316.0150000000003</v>
+      </c>
+      <c r="E38" s="20">
+        <f>F21</f>
+        <v>42</v>
+      </c>
+      <c r="F38" s="20">
+        <f>G21</f>
+        <v>500</v>
+      </c>
+      <c r="G38" s="20">
+        <f>H21</f>
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>
@@ -3453,9 +3557,9 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="2" spans="18:21">
       <c r="R2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3469,7 +3573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="3" spans="18:21">
       <c r="R3" s="3" t="s">
         <v>36</v>
       </c>
@@ -3484,7 +3588,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="4" spans="18:21">
       <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
@@ -3499,7 +3603,7 @@
         <v>743.5</v>
       </c>
     </row>
-    <row r="5" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="5" spans="18:21">
       <c r="R5" s="16" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3618,7 @@
         <v>906.5</v>
       </c>
     </row>
-    <row r="6" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="6" spans="18:21">
       <c r="R6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3529,7 +3633,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="7" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="7" spans="18:21">
       <c r="R7" s="3" t="s">
         <v>16</v>
       </c>
@@ -3544,7 +3648,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="8" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="8" spans="18:21">
       <c r="R8" s="3" t="s">
         <v>17</v>
       </c>
@@ -3559,7 +3663,7 @@
         <v>1300.5</v>
       </c>
     </row>
-    <row r="9" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="9" spans="18:21">
       <c r="R9" s="3" t="s">
         <v>18</v>
       </c>
@@ -3574,7 +3678,7 @@
         <v>1398.5</v>
       </c>
     </row>
-    <row r="10" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="10" spans="18:21">
       <c r="R10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3589,7 +3693,7 @@
         <v>1500.5</v>
       </c>
     </row>
-    <row r="11" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="11" spans="18:21">
       <c r="R11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3604,7 +3708,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="12" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="12" spans="18:21">
       <c r="R12" s="3" t="s">
         <v>21</v>
       </c>
@@ -3619,7 +3723,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="13" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="13" spans="18:21">
       <c r="R13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3634,7 +3738,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="14" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="14" spans="18:21">
       <c r="R14" s="16" t="s">
         <v>23</v>
       </c>
@@ -3649,7 +3753,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="15" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="15" spans="18:21">
       <c r="R15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3664,7 +3768,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="16" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="16" spans="18:21">
       <c r="R16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3679,7 +3783,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="17" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="17" spans="18:21">
       <c r="R17" s="3" t="s">
         <v>26</v>
       </c>
@@ -3694,7 +3798,7 @@
         <v>2574.5</v>
       </c>
     </row>
-    <row r="18" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="18" spans="18:21">
       <c r="R18" s="3" t="s">
         <v>27</v>
       </c>
@@ -3709,7 +3813,7 @@
         <v>2719.5</v>
       </c>
     </row>
-    <row r="19" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="19" spans="18:21">
       <c r="R19" s="3" t="s">
         <v>28</v>
       </c>
@@ -3724,7 +3828,7 @@
         <v>2834.5</v>
       </c>
     </row>
-    <row r="20" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="20" spans="18:21">
       <c r="R20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3739,7 +3843,7 @@
         <v>2912.5</v>
       </c>
     </row>
-    <row r="21" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="21" spans="18:21">
       <c r="R21" s="3" t="s">
         <v>11</v>
       </c>
@@ -3756,31 +3860,31 @@
         <v>2602.3210000000004</v>
       </c>
     </row>
-    <row r="22" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="22" spans="18:21">
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="23" spans="18:21">
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="24" spans="18:21">
       <c r="R24" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S24" s="24"/>
       <c r="T24" s="25"/>
     </row>
-    <row r="25" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="25" spans="18:21">
       <c r="R25" s="13"/>
       <c r="S25" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T25" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="26" spans="18:21">
       <c r="R26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S26" s="13">
         <v>1</v>
@@ -3789,9 +3893,9 @@
         <v>0.239006</v>
       </c>
     </row>
-    <row r="27" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="27" spans="18:21">
       <c r="R27" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S27" s="13">
         <v>2075</v>
@@ -3801,25 +3905,25 @@
         <v>495.93745000000001</v>
       </c>
     </row>
-    <row r="30" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="30" spans="18:21">
       <c r="R30" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S30" s="24"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="31" spans="18:21">
       <c r="R31" s="13"/>
       <c r="S31" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T31" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="18:21" x14ac:dyDescent="0.85">
+    <row r="32" spans="18:21">
       <c r="R32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S32" s="13">
         <v>1</v>
@@ -3828,9 +3932,9 @@
         <v>0.239006</v>
       </c>
     </row>
-    <row r="33" spans="18:20" x14ac:dyDescent="0.85">
+    <row r="33" spans="18:20">
       <c r="R33" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S33" s="2">
         <v>3138</v>
@@ -3840,7 +3944,7 @@
         <v>750.00082799999996</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="198.3" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:14" ht="198.25" customHeight="1">
       <c r="A70" s="21" t="s">
         <v>51</v>
       </c>
@@ -3878,14 +3982,14 @@
       <selection activeCell="I33" sqref="I33:L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="4" spans="15:17" x14ac:dyDescent="0.85">
+    <row r="4" spans="15:17">
       <c r="P4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="15:17" x14ac:dyDescent="0.85">
+    <row r="5" spans="15:17">
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
         <v>30</v>
@@ -3894,7 +3998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="15:17" x14ac:dyDescent="0.85">
+    <row r="6" spans="15:17">
       <c r="O6" s="2" t="s">
         <v>49</v>
       </c>
@@ -3905,7 +4009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="15:17" x14ac:dyDescent="0.85">
+    <row r="7" spans="15:17">
       <c r="O7" s="2" t="s">
         <v>50</v>
       </c>
@@ -3916,19 +4020,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.85">
+    <row r="31" spans="9:9">
       <c r="I31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.85">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9">
       <c r="I32">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:12">
       <c r="I33" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -3936,9 +4040,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:12">
       <c r="I34" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
@@ -3946,7 +4050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -3973,7 +4077,7 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3987,7 +4091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
